--- a/data/trans_bre/IP24_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 14,24</t>
+          <t>-5,11; 14,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 13,9</t>
+          <t>-4,09; 13,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 21,46</t>
+          <t>-0,4; 21,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 20,48</t>
+          <t>-9,95; 18,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 97,64</t>
+          <t>-21,99; 95,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 169,5</t>
+          <t>-25,33; 163,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 297,98</t>
+          <t>-8,24; 309,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 126,61</t>
+          <t>-43,76; 121,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,6</t>
+          <t>-1,21; 8,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,75</t>
+          <t>0,72; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,53</t>
+          <t>3,03; 11,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 10,0</t>
+          <t>-1,27; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 41,35</t>
+          <t>-4,79; 40,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 67,03</t>
+          <t>3,62; 66,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,13; 89,84</t>
+          <t>17,16; 86,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 68,65</t>
+          <t>-8,61; 68,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 4,2</t>
+          <t>-11,36; 3,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 7,86</t>
+          <t>-5,85; 7,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 5,73</t>
+          <t>-9,27; 5,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 7,18</t>
+          <t>-5,91; 7,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 17,49</t>
+          <t>-35,91; 18,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 56,05</t>
+          <t>-28,62; 60,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 27,93</t>
+          <t>-32,74; 29,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 61,75</t>
+          <t>-30,95; 57,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,7</t>
+          <t>-1,49; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,64</t>
+          <t>1,11; 7,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,67</t>
+          <t>1,62; 8,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,63</t>
+          <t>-0,9; 7,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 26,33</t>
+          <t>-5,84; 26,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 52,29</t>
+          <t>5,97; 54,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 56,14</t>
+          <t>9,42; 54,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 50,46</t>
+          <t>-4,65; 54,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 14,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 14,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 22,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 31,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,66; 100,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 177,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 338,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,88; 214,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>37,63%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 14,64</t>
+          <t>-1,22; 8,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 13,04</t>
+          <t>1,41; 9,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 21,18</t>
+          <t>3,1; 11,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 18,46</t>
+          <t>0,47; 22,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 95,14</t>
+          <t>-4,9; 39,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 163,15</t>
+          <t>7,37; 67,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 309,28</t>
+          <t>17,85; 84,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 121,53</t>
+          <t>-1,52; 133,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>-13,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 8,18</t>
+          <t>-11,48; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 9,67</t>
+          <t>-5,7; 8,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,13</t>
+          <t>-9,19; 5,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 9,89</t>
+          <t>-5,71; 8,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 40,14</t>
+          <t>-36,72; 20,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 66,24</t>
+          <t>-28,47; 62,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 86,71</t>
+          <t>-32,4; 24,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 68,33</t>
+          <t>-29,02; 63,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,23%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>31,18%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 3,99</t>
+          <t>-1,87; 5,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,9</t>
+          <t>0,88; 7,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 5,93</t>
+          <t>1,6; 8,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,21</t>
+          <t>-0,22; 16,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 18,86</t>
+          <t>-7,44; 27,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 60,13</t>
+          <t>4,63; 54,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 29,96</t>
+          <t>9,06; 54,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 57,0</t>
+          <t>-2,89; 95,47</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>27,5%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>18,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 5,68</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 7,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 8,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 7,94</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 26,15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 54,73</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 54,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 54,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
